--- a/controller.xlsx
+++ b/controller.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>admin123</t>
   </si>
@@ -23,72 +23,6 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>admin2</t>
-  </si>
-  <si>
-    <t>admin3</t>
-  </si>
-  <si>
-    <t>admin4</t>
-  </si>
-  <si>
-    <t>admin5</t>
-  </si>
-  <si>
-    <t>admin6</t>
-  </si>
-  <si>
-    <t>admin7</t>
-  </si>
-  <si>
-    <t>admin8</t>
-  </si>
-  <si>
-    <t>admin9</t>
-  </si>
-  <si>
-    <t>admin10</t>
-  </si>
-  <si>
-    <t>admin11</t>
-  </si>
-  <si>
-    <t>admin12</t>
-  </si>
-  <si>
-    <t>admin124</t>
-  </si>
-  <si>
-    <t>admin125</t>
-  </si>
-  <si>
-    <t>admin126</t>
-  </si>
-  <si>
-    <t>admin127</t>
-  </si>
-  <si>
-    <t>admin128</t>
-  </si>
-  <si>
-    <t>admin129</t>
-  </si>
-  <si>
-    <t>admin130</t>
-  </si>
-  <si>
-    <t>admin131</t>
-  </si>
-  <si>
-    <t>admin132</t>
-  </si>
-  <si>
-    <t>admin133</t>
-  </si>
-  <si>
-    <t>admin134</t>
   </si>
   <si>
     <t>Admin</t>
@@ -433,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,98 +385,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
